--- a/protocol/错误码.xlsx
+++ b/protocol/错误码.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
   <si>
     <t>错误码</t>
   </si>
@@ -213,6 +213,18 @@
   </si>
   <si>
     <t>没有录像</t>
+  </si>
+  <si>
+    <t>REPORT_FAIL</t>
+  </si>
+  <si>
+    <t>报道失败</t>
+  </si>
+  <si>
+    <t>PLAY_FAIL</t>
+  </si>
+  <si>
+    <t>报道后打后不打失败</t>
   </si>
 </sst>
 </file>
@@ -626,6 +638,28 @@
         <v>66</v>
       </c>
     </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="B34" t="s">
+        <v>67</v>
+      </c>
+      <c r="C34" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="B35" t="s">
+        <v>69</v>
+      </c>
+      <c r="C35" t="s">
+        <v>70</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
